--- a/patient_data/patient_16.xlsx
+++ b/patient_data/patient_16.xlsx
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -551,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1392,16 +1392,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1469,16 +1469,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
@@ -1552,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1593,40 +1593,40 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2168,28 +2168,28 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2322,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
